--- a/medicine/Psychotrope/Oktoberfest_(film,_2005)/Oktoberfest_(film,_2005).xlsx
+++ b/medicine/Psychotrope/Oktoberfest_(film,_2005)/Oktoberfest_(film,_2005).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fête de la bière (Oktoberfest) est un film allemand de 2005 réalisé par Johannes Brunner.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film de Johannes Brunners se déroule lors de l'Oktoberfest et en fait le théâtre d'une intrigue amoureuse. Au centre de celle-ci se trouve la serveurse sur la fête Birgit. Elle se trouve dans une période de doute dans son couple avec Max, musicien. Richard, quant à lui, se retrouve partagé entre ses responsabilités parentales et son nouvel amour. L'italien Alessandro lui s'éprend d'une japonaise en voyage de noce.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Oktoberfest
 Titre français : La fête de la bière
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbara Rudnik : Birgit
 Peter Lohmeyer : Richard
@@ -635,7 +653,9 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film reçoit, à la date du 23 octobre 2011, la note de 5,7/10 sur l'internet movie database.
 </t>
@@ -666,7 +686,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Goldene Kamera 2006 dans la catégorie meilleure actrice allemande pour Barbara Rudnik.</t>
         </is>
